--- a/data/144/SCB/FM0001BytBKv.xlsx
+++ b/data/144/SCB/FM0001BytBKv.xlsx
@@ -13,7 +13,7 @@
 </x:workbook>
 </file>
 
-<file path=xl/comments.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:comments xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:authors>
     <x:author>www.statistikdatabasen.scb.se</x:author>
@@ -24,7 +24,7 @@
         <x:r>
           <x:rPr>
             <x:vertAlign val="baseline"/>
-            <x:sz val="8"/>
+            <x:sz val="9"/>
             <x:color rgb="FF000000"/>
             <x:rFont val="Tahoma"/>
             <x:family val="2"/>
@@ -39,7 +39,7 @@
         <x:r>
           <x:rPr>
             <x:vertAlign val="baseline"/>
-            <x:sz val="8"/>
+            <x:sz val="9"/>
             <x:color rgb="FF000000"/>
             <x:rFont val="Tahoma"/>
             <x:family val="2"/>
@@ -54,7 +54,7 @@
         <x:r>
           <x:rPr>
             <x:vertAlign val="baseline"/>
-            <x:sz val="8"/>
+            <x:sz val="9"/>
             <x:color rgb="FF000000"/>
             <x:rFont val="Tahoma"/>
             <x:family val="2"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <x:si>
     <x:t>Balance of Payments. Current account, SEK billions by country group, exports and imports, item and quarter</x:t>
   </x:si>
@@ -549,6 +549,9 @@
   </x:si>
   <x:si>
     <x:t>2021K3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021K4</x:t>
   </x:si>
   <x:si>
     <x:t>total transactions</x:t>
@@ -597,7 +600,7 @@
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211206 09:30</x:t>
+    <x:t>20220304 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -609,15 +612,6 @@
     <x:t>Contact:</x:t>
   </x:si>
   <x:si>
-    <x:t>Elisabet Göransson, Statistics Sweden</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> +46 010-479 44 91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>elisabet.goransson@scb.se</x:t>
-  </x:si>
-  <x:si>
     <x:t>Linda Nihlwing, Statistics Sweden</x:t>
   </x:si>
   <x:si>
@@ -625,6 +619,24 @@
   </x:si>
   <x:si>
     <x:t>linda.nihlwing@scb.se</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isak Werner, Statistics Sweden</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> +46 010-479 41 48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>isak.werner@scb.se</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Viktor Penna, Statistics Sweden</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> +46 010-479 41 29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>viktor.penna@scb.se</x:t>
   </x:si>
   <x:si>
     <x:t>Copyright</x:t>
@@ -657,7 +669,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="1" formatCode="0.0"/>
+    <x:numFmt numFmtId="165" formatCode="0.0"/>
   </x:numFmts>
   <x:fonts count="3">
     <x:font>
@@ -711,41 +723,38 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+  <x:cellStyleXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -756,7 +765,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -1039,29 +1048,26 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:FF64"/>
+  <x:dimension ref="A1:FG68"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="8.840625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="23.840625" style="0" customWidth="1"/>
-    <x:col min="4" max="162" width="9.130625" style="0" customWidth="1"/>
+    <x:col min="1" max="163" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:162">
+    <x:row r="1" spans="1:163">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:162">
+    <x:row r="3" spans="1:163">
       <x:c r="D3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1539,16 +1545,19 @@
       <x:c r="FF3" s="2" t="s">
         <x:v>159</x:v>
       </x:c>
+      <x:c r="FG3" s="2" t="s">
+        <x:v>160</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:162">
+    <x:row r="4" spans="1:163">
       <x:c r="A4" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D4" s="3" t="n">
         <x:v>-2.6</x:v>
@@ -1995,44 +2004,45 @@
         <x:v>39.2</x:v>
       </x:c>
       <x:c r="EV4" s="3" t="n">
-        <x:v>70.7</x:v>
+        <x:v>70.1</x:v>
       </x:c>
       <x:c r="EW4" s="3" t="n">
-        <x:v>64.1</x:v>
+        <x:v>65.8</x:v>
       </x:c>
       <x:c r="EX4" s="3" t="n">
-        <x:v>87.5</x:v>
+        <x:v>87.7</x:v>
       </x:c>
       <x:c r="EY4" s="3" t="n">
         <x:v>54.1</x:v>
       </x:c>
       <x:c r="EZ4" s="3" t="n">
-        <x:v>82.7</x:v>
+        <x:v>82.9</x:v>
       </x:c>
       <x:c r="FA4" s="3" t="n">
-        <x:v>68.3</x:v>
+        <x:v>70.8</x:v>
       </x:c>
       <x:c r="FB4" s="3" t="n">
-        <x:v>76.4</x:v>
+        <x:v>75.5</x:v>
       </x:c>
       <x:c r="FC4" s="3" t="n">
-        <x:v>73</x:v>
+        <x:v>73.7</x:v>
       </x:c>
       <x:c r="FD4" s="3" t="n">
-        <x:v>80.1</x:v>
+        <x:v>82.3</x:v>
       </x:c>
       <x:c r="FE4" s="3" t="n">
-        <x:v>85.7</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="FF4" s="3" t="n">
-        <x:v>63</x:v>
+        <x:v>60.8</x:v>
+      </x:c>
+      <x:c r="FG4" s="3" t="n">
+        <x:v>68.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:162">
-      <x:c r="A5" s="0" t="s"/>
-      <x:c r="B5" s="0" t="s"/>
+    <x:row r="5" spans="1:163">
       <x:c r="C5" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D5" s="3" t="n">
         <x:v>0.5</x:v>
@@ -2491,32 +2501,33 @@
         <x:v>49.7</x:v>
       </x:c>
       <x:c r="EZ5" s="3" t="n">
-        <x:v>70.3</x:v>
+        <x:v>71.7</x:v>
       </x:c>
       <x:c r="FA5" s="3" t="n">
-        <x:v>40.5</x:v>
+        <x:v>41.3</x:v>
       </x:c>
       <x:c r="FB5" s="3" t="n">
-        <x:v>45.8</x:v>
+        <x:v>45.2</x:v>
       </x:c>
       <x:c r="FC5" s="3" t="n">
-        <x:v>72.6</x:v>
+        <x:v>73.8</x:v>
       </x:c>
       <x:c r="FD5" s="3" t="n">
-        <x:v>70.6</x:v>
+        <x:v>70.7</x:v>
       </x:c>
       <x:c r="FE5" s="3" t="n">
-        <x:v>72</x:v>
+        <x:v>70.5</x:v>
       </x:c>
       <x:c r="FF5" s="3" t="n">
-        <x:v>39</x:v>
+        <x:v>37.3</x:v>
+      </x:c>
+      <x:c r="FG5" s="3" t="n">
+        <x:v>58.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:162">
-      <x:c r="A6" s="0" t="s"/>
-      <x:c r="B6" s="0" t="s"/>
+    <x:row r="6" spans="1:163">
       <x:c r="C6" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D6" s="3" t="n">
         <x:v>0.4</x:v>
@@ -2975,32 +2986,33 @@
         <x:v>43.1</x:v>
       </x:c>
       <x:c r="EZ6" s="3" t="n">
-        <x:v>77.1</x:v>
+        <x:v>77.3</x:v>
       </x:c>
       <x:c r="FA6" s="3" t="n">
-        <x:v>45.4</x:v>
+        <x:v>45.5</x:v>
       </x:c>
       <x:c r="FB6" s="3" t="n">
-        <x:v>48.3</x:v>
+        <x:v>48.5</x:v>
       </x:c>
       <x:c r="FC6" s="3" t="n">
-        <x:v>59.8</x:v>
+        <x:v>59.9</x:v>
       </x:c>
       <x:c r="FD6" s="3" t="n">
-        <x:v>67.2</x:v>
+        <x:v>70.4</x:v>
       </x:c>
       <x:c r="FE6" s="3" t="n">
-        <x:v>68.9</x:v>
+        <x:v>70.6</x:v>
       </x:c>
       <x:c r="FF6" s="3" t="n">
-        <x:v>47</x:v>
+        <x:v>47.7</x:v>
+      </x:c>
+      <x:c r="FG6" s="3" t="n">
+        <x:v>55.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:162">
-      <x:c r="A7" s="0" t="s"/>
-      <x:c r="B7" s="0" t="s"/>
+    <x:row r="7" spans="1:163">
       <x:c r="C7" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D7" s="3" t="n">
         <x:v>0.2</x:v>
@@ -3459,32 +3471,33 @@
         <x:v>6.6</x:v>
       </x:c>
       <x:c r="EZ7" s="3" t="n">
-        <x:v>-6.8</x:v>
+        <x:v>-5.6</x:v>
       </x:c>
       <x:c r="FA7" s="3" t="n">
-        <x:v>-4.9</x:v>
+        <x:v>-4.2</x:v>
       </x:c>
       <x:c r="FB7" s="3" t="n">
-        <x:v>-2.5</x:v>
+        <x:v>-3.3</x:v>
       </x:c>
       <x:c r="FC7" s="3" t="n">
-        <x:v>12.7</x:v>
+        <x:v>13.9</x:v>
       </x:c>
       <x:c r="FD7" s="3" t="n">
-        <x:v>3.4</x:v>
+        <x:v>0.3</x:v>
       </x:c>
       <x:c r="FE7" s="3" t="n">
-        <x:v>3.1</x:v>
+        <x:v>-0.1</x:v>
       </x:c>
       <x:c r="FF7" s="3" t="n">
-        <x:v>-8</x:v>
+        <x:v>-10.4</x:v>
+      </x:c>
+      <x:c r="FG7" s="3" t="n">
+        <x:v>2.3</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:162">
-      <x:c r="A8" s="0" t="s"/>
-      <x:c r="B8" s="0" t="s"/>
+    <x:row r="8" spans="1:163">
       <x:c r="C8" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D8" s="3" t="n">
         <x:v>-1.9</x:v>
@@ -3931,44 +3944,45 @@
         <x:v>29.4</x:v>
       </x:c>
       <x:c r="EV8" s="3" t="n">
-        <x:v>53.4</x:v>
+        <x:v>52.6</x:v>
       </x:c>
       <x:c r="EW8" s="3" t="n">
-        <x:v>4.6</x:v>
+        <x:v>5.9</x:v>
       </x:c>
       <x:c r="EX8" s="3" t="n">
-        <x:v>53.4</x:v>
+        <x:v>53.6</x:v>
       </x:c>
       <x:c r="EY8" s="3" t="n">
         <x:v>36.2</x:v>
       </x:c>
       <x:c r="EZ8" s="3" t="n">
-        <x:v>45.4</x:v>
+        <x:v>44.7</x:v>
       </x:c>
       <x:c r="FA8" s="3" t="n">
-        <x:v>52.1</x:v>
+        <x:v>54.4</x:v>
       </x:c>
       <x:c r="FB8" s="3" t="n">
-        <x:v>48.1</x:v>
+        <x:v>48.6</x:v>
       </x:c>
       <x:c r="FC8" s="3" t="n">
-        <x:v>29.5</x:v>
+        <x:v>28.8</x:v>
       </x:c>
       <x:c r="FD8" s="3" t="n">
-        <x:v>49.1</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="FE8" s="3" t="n">
-        <x:v>35.1</x:v>
+        <x:v>35.3</x:v>
       </x:c>
       <x:c r="FF8" s="3" t="n">
-        <x:v>45.2</x:v>
+        <x:v>45.1</x:v>
+      </x:c>
+      <x:c r="FG8" s="3" t="n">
+        <x:v>31.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:162">
-      <x:c r="A9" s="0" t="s"/>
-      <x:c r="B9" s="0" t="s"/>
+    <x:row r="9" spans="1:163">
       <x:c r="C9" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D9" s="3" t="n">
         <x:v>-1.9</x:v>
@@ -4415,42 +4429,45 @@
         <x:v>28.3</x:v>
       </x:c>
       <x:c r="EV9" s="3" t="n">
-        <x:v>49.2</x:v>
+        <x:v>48.3</x:v>
       </x:c>
       <x:c r="EW9" s="3" t="n">
-        <x:v>0.8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="EX9" s="3" t="n">
-        <x:v>49.9</x:v>
+        <x:v>50.1</x:v>
       </x:c>
       <x:c r="EY9" s="3" t="n">
-        <x:v>34</x:v>
+        <x:v>34.1</x:v>
       </x:c>
       <x:c r="EZ9" s="3" t="n">
-        <x:v>40.8</x:v>
+        <x:v>39.7</x:v>
       </x:c>
       <x:c r="FA9" s="3" t="n">
-        <x:v>48.8</x:v>
+        <x:v>50.7</x:v>
       </x:c>
       <x:c r="FB9" s="3" t="n">
-        <x:v>45.1</x:v>
+        <x:v>45.2</x:v>
       </x:c>
       <x:c r="FC9" s="3" t="n">
-        <x:v>24.8</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="FD9" s="3" t="n">
-        <x:v>46.1</x:v>
+        <x:v>46.2</x:v>
       </x:c>
       <x:c r="FE9" s="3" t="n">
-        <x:v>32.5</x:v>
+        <x:v>32.6</x:v>
       </x:c>
       <x:c r="FF9" s="3" t="n">
-        <x:v>42.5</x:v>
+        <x:v>42.4</x:v>
+      </x:c>
+      <x:c r="FG9" s="3" t="n">
+        <x:v>28</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:162">
+    <x:row r="10" spans="1:163">
       <x:c r="C10" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D10" s="3" t="n">
         <x:v>-1.2</x:v>
@@ -4897,10 +4914,10 @@
         <x:v>-22.8</x:v>
       </x:c>
       <x:c r="EV10" s="3" t="n">
-        <x:v>-31.9</x:v>
+        <x:v>-31.8</x:v>
       </x:c>
       <x:c r="EW10" s="3" t="n">
-        <x:v>-10</x:v>
+        <x:v>-9.6</x:v>
       </x:c>
       <x:c r="EX10" s="3" t="n">
         <x:v>-21.1</x:v>
@@ -4909,33 +4926,36 @@
         <x:v>-31.9</x:v>
       </x:c>
       <x:c r="EZ10" s="3" t="n">
-        <x:v>-33</x:v>
+        <x:v>-33.6</x:v>
       </x:c>
       <x:c r="FA10" s="3" t="n">
-        <x:v>-24.3</x:v>
+        <x:v>-24.9</x:v>
       </x:c>
       <x:c r="FB10" s="3" t="n">
-        <x:v>-17.5</x:v>
+        <x:v>-18.3</x:v>
       </x:c>
       <x:c r="FC10" s="3" t="n">
-        <x:v>-29.1</x:v>
+        <x:v>-28.9</x:v>
       </x:c>
       <x:c r="FD10" s="3" t="n">
-        <x:v>-39.6</x:v>
+        <x:v>-37.4</x:v>
       </x:c>
       <x:c r="FE10" s="3" t="n">
-        <x:v>-21.4</x:v>
+        <x:v>-20.8</x:v>
       </x:c>
       <x:c r="FF10" s="3" t="n">
-        <x:v>-21.2</x:v>
+        <x:v>-21.5</x:v>
+      </x:c>
+      <x:c r="FG10" s="3" t="n">
+        <x:v>-20.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:162">
+    <x:row r="11" spans="1:163">
       <x:c r="B11" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D11" s="3" t="n">
         <x:v>53.4</x:v>
@@ -5382,44 +5402,45 @@
         <x:v>722.3</x:v>
       </x:c>
       <x:c r="EV11" s="3" t="n">
-        <x:v>730.7</x:v>
+        <x:v>730.8</x:v>
       </x:c>
       <x:c r="EW11" s="3" t="n">
-        <x:v>818</x:v>
+        <x:v>819</x:v>
       </x:c>
       <x:c r="EX11" s="3" t="n">
-        <x:v>740</x:v>
+        <x:v>741.4</x:v>
       </x:c>
       <x:c r="EY11" s="3" t="n">
-        <x:v>767.6</x:v>
+        <x:v>768.9</x:v>
       </x:c>
       <x:c r="EZ11" s="3" t="n">
-        <x:v>727</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="FA11" s="3" t="n">
-        <x:v>653.4</x:v>
+        <x:v>657.2</x:v>
       </x:c>
       <x:c r="FB11" s="3" t="n">
-        <x:v>648.3</x:v>
+        <x:v>648.6</x:v>
       </x:c>
       <x:c r="FC11" s="3" t="n">
-        <x:v>742.8</x:v>
+        <x:v>743.5</x:v>
       </x:c>
       <x:c r="FD11" s="3" t="n">
-        <x:v>730</x:v>
+        <x:v>732.8</x:v>
       </x:c>
       <x:c r="FE11" s="3" t="n">
-        <x:v>809.3</x:v>
+        <x:v>809.5</x:v>
       </x:c>
       <x:c r="FF11" s="3" t="n">
-        <x:v>750</x:v>
+        <x:v>749</x:v>
+      </x:c>
+      <x:c r="FG11" s="3" t="n">
+        <x:v>860.3</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:162">
-      <x:c r="A12" s="0" t="s"/>
-      <x:c r="B12" s="0" t="s"/>
+    <x:row r="12" spans="1:163">
       <x:c r="C12" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D12" s="3" t="n">
         <x:v>49.5</x:v>
@@ -5878,32 +5899,33 @@
         <x:v>625</x:v>
       </x:c>
       <x:c r="EZ12" s="3" t="n">
-        <x:v>598.8</x:v>
+        <x:v>598.1</x:v>
       </x:c>
       <x:c r="FA12" s="3" t="n">
-        <x:v>501.7</x:v>
+        <x:v>502.5</x:v>
       </x:c>
       <x:c r="FB12" s="3" t="n">
-        <x:v>521.6</x:v>
+        <x:v>521.1</x:v>
       </x:c>
       <x:c r="FC12" s="3" t="n">
-        <x:v>613.2</x:v>
+        <x:v>614.1</x:v>
       </x:c>
       <x:c r="FD12" s="3" t="n">
-        <x:v>583.1</x:v>
+        <x:v>583.3</x:v>
       </x:c>
       <x:c r="FE12" s="3" t="n">
-        <x:v>620</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="FF12" s="3" t="n">
-        <x:v>600.4</x:v>
+        <x:v>599</x:v>
+      </x:c>
+      <x:c r="FG12" s="3" t="n">
+        <x:v>705.3</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:162">
-      <x:c r="A13" s="0" t="s"/>
-      <x:c r="B13" s="0" t="s"/>
+    <x:row r="13" spans="1:163">
       <x:c r="C13" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D13" s="3" t="n">
         <x:v>40.2</x:v>
@@ -6362,32 +6384,33 @@
         <x:v>434.1</x:v>
       </x:c>
       <x:c r="EZ13" s="3" t="n">
-        <x:v>434.3</x:v>
+        <x:v>434.4</x:v>
       </x:c>
       <x:c r="FA13" s="3" t="n">
-        <x:v>360.9</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="FB13" s="3" t="n">
-        <x:v>377</x:v>
+        <x:v>377.1</x:v>
       </x:c>
       <x:c r="FC13" s="3" t="n">
         <x:v>432.3</x:v>
       </x:c>
       <x:c r="FD13" s="3" t="n">
-        <x:v>432.6</x:v>
+        <x:v>434.4</x:v>
       </x:c>
       <x:c r="FE13" s="3" t="n">
-        <x:v>459.2</x:v>
+        <x:v>459.9</x:v>
       </x:c>
       <x:c r="FF13" s="3" t="n">
         <x:v>431.2</x:v>
       </x:c>
+      <x:c r="FG13" s="3" t="n">
+        <x:v>503.4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="14" spans="1:162">
-      <x:c r="A14" s="0" t="s"/>
-      <x:c r="B14" s="0" t="s"/>
+    <x:row r="14" spans="1:163">
       <x:c r="C14" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D14" s="3" t="n">
         <x:v>9.2</x:v>
@@ -6846,32 +6869,33 @@
         <x:v>190.9</x:v>
       </x:c>
       <x:c r="EZ14" s="3" t="n">
-        <x:v>164.5</x:v>
+        <x:v>163.6</x:v>
       </x:c>
       <x:c r="FA14" s="3" t="n">
-        <x:v>140.8</x:v>
+        <x:v>141.5</x:v>
       </x:c>
       <x:c r="FB14" s="3" t="n">
-        <x:v>144.6</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="FC14" s="3" t="n">
-        <x:v>180.9</x:v>
+        <x:v>181.8</x:v>
       </x:c>
       <x:c r="FD14" s="3" t="n">
-        <x:v>150.5</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="FE14" s="3" t="n">
-        <x:v>160.8</x:v>
+        <x:v>159.1</x:v>
       </x:c>
       <x:c r="FF14" s="3" t="n">
-        <x:v>169.2</x:v>
+        <x:v>167.8</x:v>
+      </x:c>
+      <x:c r="FG14" s="3" t="n">
+        <x:v>202</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:162">
-      <x:c r="A15" s="0" t="s"/>
-      <x:c r="B15" s="0" t="s"/>
+    <x:row r="15" spans="1:163">
       <x:c r="C15" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D15" s="3" t="n">
         <x:v>3.8</x:v>
@@ -7318,44 +7342,45 @@
         <x:v>114.2</x:v>
       </x:c>
       <x:c r="EV15" s="3" t="n">
-        <x:v>132.2</x:v>
+        <x:v>132.3</x:v>
       </x:c>
       <x:c r="EW15" s="3" t="n">
-        <x:v>167.9</x:v>
+        <x:v>168.9</x:v>
       </x:c>
       <x:c r="EX15" s="3" t="n">
-        <x:v>131.2</x:v>
+        <x:v>132.6</x:v>
       </x:c>
       <x:c r="EY15" s="3" t="n">
-        <x:v>126.7</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="EZ15" s="3" t="n">
-        <x:v>116.4</x:v>
+        <x:v>116.9</x:v>
       </x:c>
       <x:c r="FA15" s="3" t="n">
-        <x:v>137.4</x:v>
+        <x:v>140.9</x:v>
       </x:c>
       <x:c r="FB15" s="3" t="n">
-        <x:v>116.7</x:v>
+        <x:v>118.4</x:v>
       </x:c>
       <x:c r="FC15" s="3" t="n">
-        <x:v>117.1</x:v>
+        <x:v>116.8</x:v>
       </x:c>
       <x:c r="FD15" s="3" t="n">
-        <x:v>137.3</x:v>
+        <x:v>137.1</x:v>
       </x:c>
       <x:c r="FE15" s="3" t="n">
-        <x:v>171.3</x:v>
+        <x:v>171.4</x:v>
       </x:c>
       <x:c r="FF15" s="3" t="n">
-        <x:v>138.2</x:v>
+        <x:v>138.4</x:v>
+      </x:c>
+      <x:c r="FG15" s="3" t="n">
+        <x:v>137.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:162">
-      <x:c r="A16" s="0" t="s"/>
-      <x:c r="B16" s="0" t="s"/>
+    <x:row r="16" spans="1:163">
       <x:c r="C16" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D16" s="3" t="n">
         <x:v>3.8</x:v>
@@ -7802,28 +7827,28 @@
         <x:v>106.6</x:v>
       </x:c>
       <x:c r="EV16" s="3" t="n">
-        <x:v>123.2</x:v>
+        <x:v>123.3</x:v>
       </x:c>
       <x:c r="EW16" s="3" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="EX16" s="3" t="n">
-        <x:v>122.9</x:v>
+        <x:v>124.2</x:v>
       </x:c>
       <x:c r="EY16" s="3" t="n">
-        <x:v>118.1</x:v>
+        <x:v>119.4</x:v>
       </x:c>
       <x:c r="EZ16" s="3" t="n">
-        <x:v>107.1</x:v>
+        <x:v>107.3</x:v>
       </x:c>
       <x:c r="FA16" s="3" t="n">
-        <x:v>129.5</x:v>
+        <x:v>132.6</x:v>
       </x:c>
       <x:c r="FB16" s="3" t="n">
-        <x:v>109.3</x:v>
+        <x:v>110.4</x:v>
       </x:c>
       <x:c r="FC16" s="3" t="n">
-        <x:v>106.9</x:v>
+        <x:v>108.4</x:v>
       </x:c>
       <x:c r="FD16" s="3" t="n">
         <x:v>129.8</x:v>
@@ -7832,12 +7857,15 @@
         <x:v>163.6</x:v>
       </x:c>
       <x:c r="FF16" s="3" t="n">
-        <x:v>130</x:v>
+        <x:v>130.1</x:v>
+      </x:c>
+      <x:c r="FG16" s="3" t="n">
+        <x:v>126.3</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:162">
+    <x:row r="17" spans="1:163">
       <x:c r="C17" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D17" s="3" t="n">
         <x:v>0.1</x:v>
@@ -8296,33 +8324,36 @@
         <x:v>15.8</x:v>
       </x:c>
       <x:c r="EZ17" s="3" t="n">
-        <x:v>11.8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="FA17" s="3" t="n">
-        <x:v>14.3</x:v>
+        <x:v>13.8</x:v>
       </x:c>
       <x:c r="FB17" s="3" t="n">
-        <x:v>10</x:v>
+        <x:v>9.2</x:v>
       </x:c>
       <x:c r="FC17" s="3" t="n">
-        <x:v>12.5</x:v>
+        <x:v>12.7</x:v>
       </x:c>
       <x:c r="FD17" s="3" t="n">
-        <x:v>9.6</x:v>
+        <x:v>12.4</x:v>
       </x:c>
       <x:c r="FE17" s="3" t="n">
+        <x:v>19.1</x:v>
+      </x:c>
+      <x:c r="FF17" s="3" t="n">
+        <x:v>11.7</x:v>
+      </x:c>
+      <x:c r="FG17" s="3" t="n">
         <x:v>17.9</x:v>
       </x:c>
-      <x:c r="FF17" s="3" t="n">
-        <x:v>11.4</x:v>
-      </x:c>
     </x:row>
-    <x:row r="18" spans="1:162">
+    <x:row r="18" spans="1:163">
       <x:c r="B18" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D18" s="3" t="n">
         <x:v>56</x:v>
@@ -8769,44 +8800,45 @@
         <x:v>683.1</x:v>
       </x:c>
       <x:c r="EV18" s="3" t="n">
-        <x:v>660</x:v>
+        <x:v>660.8</x:v>
       </x:c>
       <x:c r="EW18" s="3" t="n">
-        <x:v>753.9</x:v>
+        <x:v>753.3</x:v>
       </x:c>
       <x:c r="EX18" s="3" t="n">
-        <x:v>652.4</x:v>
+        <x:v>653.6</x:v>
       </x:c>
       <x:c r="EY18" s="3" t="n">
-        <x:v>713.5</x:v>
+        <x:v>714.8</x:v>
       </x:c>
       <x:c r="EZ18" s="3" t="n">
-        <x:v>644.3</x:v>
+        <x:v>643.2</x:v>
       </x:c>
       <x:c r="FA18" s="3" t="n">
-        <x:v>585.1</x:v>
+        <x:v>586.4</x:v>
       </x:c>
       <x:c r="FB18" s="3" t="n">
-        <x:v>571.9</x:v>
+        <x:v>573.1</x:v>
       </x:c>
       <x:c r="FC18" s="3" t="n">
-        <x:v>669.7</x:v>
+        <x:v>669.9</x:v>
       </x:c>
       <x:c r="FD18" s="3" t="n">
-        <x:v>649.9</x:v>
+        <x:v>650.5</x:v>
       </x:c>
       <x:c r="FE18" s="3" t="n">
-        <x:v>723.6</x:v>
+        <x:v>724.5</x:v>
       </x:c>
       <x:c r="FF18" s="3" t="n">
-        <x:v>687</x:v>
+        <x:v>688.2</x:v>
+      </x:c>
+      <x:c r="FG18" s="3" t="n">
+        <x:v>791.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:162">
-      <x:c r="A19" s="0" t="s"/>
-      <x:c r="B19" s="0" t="s"/>
+    <x:row r="19" spans="1:163">
       <x:c r="C19" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D19" s="3" t="n">
         <x:v>48.9</x:v>
@@ -9265,32 +9297,33 @@
         <x:v>575.3</x:v>
       </x:c>
       <x:c r="EZ19" s="3" t="n">
-        <x:v>528.5</x:v>
+        <x:v>526.3</x:v>
       </x:c>
       <x:c r="FA19" s="3" t="n">
         <x:v>461.2</x:v>
       </x:c>
       <x:c r="FB19" s="3" t="n">
-        <x:v>475.8</x:v>
+        <x:v>475.9</x:v>
       </x:c>
       <x:c r="FC19" s="3" t="n">
-        <x:v>540.7</x:v>
+        <x:v>540.3</x:v>
       </x:c>
       <x:c r="FD19" s="3" t="n">
-        <x:v>512.5</x:v>
+        <x:v>512.6</x:v>
       </x:c>
       <x:c r="FE19" s="3" t="n">
-        <x:v>548.1</x:v>
+        <x:v>548.5</x:v>
       </x:c>
       <x:c r="FF19" s="3" t="n">
-        <x:v>561.4</x:v>
+        <x:v>561.7</x:v>
+      </x:c>
+      <x:c r="FG19" s="3" t="n">
+        <x:v>647.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:162">
-      <x:c r="A20" s="0" t="s"/>
-      <x:c r="B20" s="0" t="s"/>
+    <x:row r="20" spans="1:163">
       <x:c r="C20" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D20" s="3" t="n">
         <x:v>39.9</x:v>
@@ -9749,32 +9782,33 @@
         <x:v>391</x:v>
       </x:c>
       <x:c r="EZ20" s="3" t="n">
-        <x:v>357.2</x:v>
+        <x:v>357.1</x:v>
       </x:c>
       <x:c r="FA20" s="3" t="n">
-        <x:v>315.5</x:v>
+        <x:v>315.4</x:v>
       </x:c>
       <x:c r="FB20" s="3" t="n">
-        <x:v>328.7</x:v>
+        <x:v>328.6</x:v>
       </x:c>
       <x:c r="FC20" s="3" t="n">
         <x:v>372.4</x:v>
       </x:c>
       <x:c r="FD20" s="3" t="n">
-        <x:v>365.4</x:v>
+        <x:v>363.9</x:v>
       </x:c>
       <x:c r="FE20" s="3" t="n">
-        <x:v>390.3</x:v>
+        <x:v>389.3</x:v>
       </x:c>
       <x:c r="FF20" s="3" t="n">
-        <x:v>384.3</x:v>
+        <x:v>383.4</x:v>
+      </x:c>
+      <x:c r="FG20" s="3" t="n">
+        <x:v>447.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:162">
-      <x:c r="A21" s="0" t="s"/>
-      <x:c r="B21" s="0" t="s"/>
+    <x:row r="21" spans="1:163">
       <x:c r="C21" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D21" s="3" t="n">
         <x:v>9</x:v>
@@ -10233,32 +10267,33 @@
         <x:v>184.3</x:v>
       </x:c>
       <x:c r="EZ21" s="3" t="n">
-        <x:v>171.3</x:v>
+        <x:v>169.2</x:v>
       </x:c>
       <x:c r="FA21" s="3" t="n">
         <x:v>145.7</x:v>
       </x:c>
       <x:c r="FB21" s="3" t="n">
-        <x:v>147.1</x:v>
+        <x:v>147.2</x:v>
       </x:c>
       <x:c r="FC21" s="3" t="n">
-        <x:v>168.2</x:v>
+        <x:v>167.9</x:v>
       </x:c>
       <x:c r="FD21" s="3" t="n">
-        <x:v>147</x:v>
+        <x:v>148.7</x:v>
       </x:c>
       <x:c r="FE21" s="3" t="n">
-        <x:v>157.8</x:v>
+        <x:v>159.2</x:v>
       </x:c>
       <x:c r="FF21" s="3" t="n">
-        <x:v>177.1</x:v>
+        <x:v>178.3</x:v>
+      </x:c>
+      <x:c r="FG21" s="3" t="n">
+        <x:v>199.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:162">
-      <x:c r="A22" s="0" t="s"/>
-      <x:c r="B22" s="0" t="s"/>
+    <x:row r="22" spans="1:163">
       <x:c r="C22" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D22" s="3" t="n">
         <x:v>5.7</x:v>
@@ -10705,44 +10740,45 @@
         <x:v>84.8</x:v>
       </x:c>
       <x:c r="EV22" s="3" t="n">
-        <x:v>78.8</x:v>
+        <x:v>79.7</x:v>
       </x:c>
       <x:c r="EW22" s="3" t="n">
-        <x:v>163.3</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="EX22" s="3" t="n">
-        <x:v>77.8</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="EY22" s="3" t="n">
-        <x:v>90.5</x:v>
+        <x:v>91.8</x:v>
       </x:c>
       <x:c r="EZ22" s="3" t="n">
-        <x:v>71</x:v>
+        <x:v>72.2</x:v>
       </x:c>
       <x:c r="FA22" s="3" t="n">
-        <x:v>85.3</x:v>
+        <x:v>86.5</x:v>
       </x:c>
       <x:c r="FB22" s="3" t="n">
-        <x:v>68.7</x:v>
+        <x:v>69.7</x:v>
       </x:c>
       <x:c r="FC22" s="3" t="n">
-        <x:v>87.5</x:v>
+        <x:v>87.9</x:v>
       </x:c>
       <x:c r="FD22" s="3" t="n">
-        <x:v>88.2</x:v>
+        <x:v>88.1</x:v>
       </x:c>
       <x:c r="FE22" s="3" t="n">
-        <x:v>136.3</x:v>
+        <x:v>136.1</x:v>
       </x:c>
       <x:c r="FF22" s="3" t="n">
-        <x:v>93</x:v>
+        <x:v>93.3</x:v>
+      </x:c>
+      <x:c r="FG22" s="3" t="n">
+        <x:v>105.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:162">
-      <x:c r="A23" s="0" t="s"/>
-      <x:c r="B23" s="0" t="s"/>
+    <x:row r="23" spans="1:163">
       <x:c r="C23" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D23" s="3" t="n">
         <x:v>5.7</x:v>
@@ -11189,42 +11225,45 @@
         <x:v>78.3</x:v>
       </x:c>
       <x:c r="EV23" s="3" t="n">
-        <x:v>74</x:v>
+        <x:v>74.9</x:v>
       </x:c>
       <x:c r="EW23" s="3" t="n">
-        <x:v>158.2</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="EX23" s="3" t="n">
-        <x:v>72.9</x:v>
+        <x:v>74.1</x:v>
       </x:c>
       <x:c r="EY23" s="3" t="n">
-        <x:v>84</x:v>
+        <x:v>85.3</x:v>
       </x:c>
       <x:c r="EZ23" s="3" t="n">
-        <x:v>66.4</x:v>
+        <x:v>67.6</x:v>
       </x:c>
       <x:c r="FA23" s="3" t="n">
-        <x:v>80.7</x:v>
+        <x:v>81.9</x:v>
       </x:c>
       <x:c r="FB23" s="3" t="n">
-        <x:v>64.2</x:v>
+        <x:v>65.3</x:v>
       </x:c>
       <x:c r="FC23" s="3" t="n">
-        <x:v>82</x:v>
+        <x:v>82.4</x:v>
       </x:c>
       <x:c r="FD23" s="3" t="n">
-        <x:v>83.7</x:v>
+        <x:v>83.6</x:v>
       </x:c>
       <x:c r="FE23" s="3" t="n">
-        <x:v>131.1</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="FF23" s="3" t="n">
-        <x:v>87.5</x:v>
+        <x:v>87.8</x:v>
+      </x:c>
+      <x:c r="FG23" s="3" t="n">
+        <x:v>98.3</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:162">
+    <x:row r="24" spans="1:163">
       <x:c r="C24" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D24" s="3" t="n">
         <x:v>1.4</x:v>
@@ -11671,10 +11710,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="EV24" s="3" t="n">
-        <x:v>45.8</x:v>
+        <x:v>45.6</x:v>
       </x:c>
       <x:c r="EW24" s="3" t="n">
-        <x:v>33.5</x:v>
+        <x:v>33.2</x:v>
       </x:c>
       <x:c r="EX24" s="3" t="n">
         <x:v>32.6</x:v>
@@ -11683,147 +11722,159 @@
         <x:v>47.7</x:v>
       </x:c>
       <x:c r="EZ24" s="3" t="n">
-        <x:v>44.7</x:v>
+        <x:v>44.6</x:v>
       </x:c>
       <x:c r="FA24" s="3" t="n">
-        <x:v>38.6</x:v>
+        <x:v>38.7</x:v>
       </x:c>
       <x:c r="FB24" s="3" t="n">
         <x:v>27.5</x:v>
       </x:c>
       <x:c r="FC24" s="3" t="n">
-        <x:v>41.5</x:v>
+        <x:v>41.6</x:v>
       </x:c>
       <x:c r="FD24" s="3" t="n">
-        <x:v>49.2</x:v>
+        <x:v>49.9</x:v>
       </x:c>
       <x:c r="FE24" s="3" t="n">
-        <x:v>39.3</x:v>
+        <x:v>39.9</x:v>
       </x:c>
       <x:c r="FF24" s="3" t="n">
-        <x:v>32.6</x:v>
+        <x:v>33.2</x:v>
+      </x:c>
+      <x:c r="FG24" s="3" t="n">
+        <x:v>38.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:162">
+    <x:row r="26" spans="1:163">
       <x:c r="A26" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:162">
+    <x:row r="27" spans="1:163">
       <x:c r="A27" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:162">
+    <x:row r="28" spans="1:163">
       <x:c r="A28" s="4" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:162">
+    <x:row r="31" spans="1:163">
       <x:c r="A31" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:162">
+    <x:row r="32" spans="1:163">
       <x:c r="A32" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:162">
+    <x:row r="34" spans="1:163">
       <x:c r="A34" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:162">
+    <x:row r="35" spans="1:163">
       <x:c r="A35" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:162">
+    <x:row r="37" spans="1:163">
       <x:c r="A37" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:162">
+    <x:row r="38" spans="1:163">
       <x:c r="A38" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:162">
+    <x:row r="39" spans="1:163">
       <x:c r="A39" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:162">
+    <x:row r="40" spans="1:163">
       <x:c r="A40" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:162">
-      <x:c r="A41" s="0" t="s"/>
+    <x:row r="42" spans="1:163">
+      <x:c r="A42" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
     </x:row>
-    <x:row r="42" spans="1:162">
-      <x:c r="A42" s="0" t="s">
-        <x:v>182</x:v>
+    <x:row r="43" spans="1:163">
+      <x:c r="A43" s="0" t="s">
+        <x:v>184</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:162">
-      <x:c r="A43" s="0" t="s">
-        <x:v>183</x:v>
+    <x:row r="44" spans="1:163">
+      <x:c r="A44" s="0" t="s">
+        <x:v>185</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:162">
-      <x:c r="A44" s="0" t="s">
-        <x:v>184</x:v>
+    <x:row r="46" spans="1:163">
+      <x:c r="A46" s="0" t="s">
+        <x:v>186</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:162">
-      <x:c r="A45" s="0" t="s"/>
+    <x:row r="47" spans="1:163">
+      <x:c r="A47" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
     </x:row>
-    <x:row r="46" spans="1:162">
-      <x:c r="A46" s="0" t="s"/>
+    <x:row r="48" spans="1:163">
+      <x:c r="A48" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
     </x:row>
-    <x:row r="48" spans="1:162">
-      <x:c r="A48" s="0" t="s">
-        <x:v>185</x:v>
+    <x:row r="52" spans="1:163">
+      <x:c r="A52" s="0" t="s">
+        <x:v>189</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:162">
-      <x:c r="A50" s="0" t="s">
-        <x:v>186</x:v>
+    <x:row r="54" spans="1:163">
+      <x:c r="A54" s="0" t="s">
+        <x:v>190</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:162">
-      <x:c r="A51" s="0" t="s">
-        <x:v>187</x:v>
+    <x:row r="55" spans="1:163">
+      <x:c r="A55" s="0" t="s">
+        <x:v>191</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:162">
-      <x:c r="A53" s="0" t="s">
-        <x:v>188</x:v>
+    <x:row r="57" spans="1:163">
+      <x:c r="A57" s="0" t="s">
+        <x:v>192</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:162">
-      <x:c r="A60" s="0" t="s">
-        <x:v>189</x:v>
+    <x:row r="64" spans="1:163">
+      <x:c r="A64" s="0" t="s">
+        <x:v>193</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:162">
-      <x:c r="A61" s="0" t="s">
-        <x:v>190</x:v>
+    <x:row r="65" spans="1:163">
+      <x:c r="A65" s="0" t="s">
+        <x:v>194</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:162">
-      <x:c r="A63" s="0" t="s">
-        <x:v>191</x:v>
+    <x:row r="67" spans="1:163">
+      <x:c r="A67" s="0" t="s">
+        <x:v>195</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:162">
-      <x:c r="A64" s="0" t="s">
-        <x:v>192</x:v>
+    <x:row r="68" spans="1:163">
+      <x:c r="A68" s="0" t="s">
+        <x:v>196</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="1">
+    <x:mergeCell ref="A28:FG28"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
